--- a/marques/Nike/REFERENCES NIKE.xlsx
+++ b/marques/Nike/REFERENCES NIKE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\CBW\marques\Nike\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6010990E-EA81-4B3F-9CF8-6FD4E25BE885}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A21D4D-6D7E-48DA-9693-7CA072C915CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10500" yWindow="-75" windowWidth="15375" windowHeight="7875" firstSheet="3" activeTab="5" xr2:uid="{FCE544FB-9F00-4699-90AA-71B19714F99A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="6" xr2:uid="{FCE544FB-9F00-4699-90AA-71B19714F99A}"/>
   </bookViews>
   <sheets>
     <sheet name="AM270" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="AM95" sheetId="3" r:id="rId4"/>
     <sheet name="AVMP" sheetId="5" r:id="rId5"/>
     <sheet name="AV19" sheetId="6" r:id="rId6"/>
+    <sheet name="AVF2" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
   <si>
     <t>AM2759701</t>
   </si>
@@ -469,16 +470,74 @@
   </si>
   <si>
     <t>AV7674854</t>
+  </si>
+  <si>
+    <t>AIR VAPORMAX FLYKNIT 2.0</t>
+  </si>
+  <si>
+    <t>AV2F2498717</t>
+  </si>
+  <si>
+    <t>AV2F2871498</t>
+  </si>
+  <si>
+    <t>AV2F8726929</t>
+  </si>
+  <si>
+    <t>AV2F2467520</t>
+  </si>
+  <si>
+    <t>AV2F2981901</t>
+  </si>
+  <si>
+    <t>AV2F2551272</t>
+  </si>
+  <si>
+    <t>AV2F0943874</t>
+  </si>
+  <si>
+    <t>AV2F2784324</t>
+  </si>
+  <si>
+    <t>AV2F0918725</t>
+  </si>
+  <si>
+    <t>AV2F7085026</t>
+  </si>
+  <si>
+    <t>AV2F5946001</t>
+  </si>
+  <si>
+    <t>AV2F2309472</t>
+  </si>
+  <si>
+    <t>AV2F1825674</t>
+  </si>
+  <si>
+    <t>AV2F9701632</t>
+  </si>
+  <si>
+    <t>AV2F4762195</t>
+  </si>
+  <si>
+    <t>AV2F3640192</t>
+  </si>
+  <si>
+    <t>AV2F8391097</t>
+  </si>
+  <si>
+    <t>AV2F4198634</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -496,6 +555,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -539,13 +604,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1517,7 +1585,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A12"/>
+      <selection activeCell="A17" sqref="A17:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1635,8 +1703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185427D9-8739-47E4-9CF0-0154CBE69134}">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection sqref="A1:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1699,4 +1767,143 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684E8E92-1FA9-4CA9-ABE5-0316D019E766}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="6">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="6">
+        <f>D1*2</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="6">
+        <f>D1*3</f>
+        <v>487.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="6">
+        <f>D1*4</f>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="6">
+        <f>D1*5</f>
+        <v>812.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>